--- a/data/step2/step2_excel_template.xlsx
+++ b/data/step2/step2_excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\MCA\data\step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D56DD9-D936-450B-BCAE-D6D210D94F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735EF31-B011-4F18-85EF-96F4BD9330B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1995" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>file_name</t>
   </si>
@@ -43,18 +43,12 @@
     <t>AOI.shp</t>
   </si>
   <si>
-    <t>epsg:3857</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>electrical_grid.geojson</t>
   </si>
   <si>
-    <t>epsg:4326</t>
-  </si>
-  <si>
     <t>GHI.tif</t>
   </si>
   <si>
@@ -77,6 +71,9 @@
   </si>
   <si>
     <t>wind_speed_10m_height.tif</t>
+  </si>
+  <si>
+    <t>EPSG:4326</t>
   </si>
 </sst>
 </file>
@@ -442,7 +439,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,32 +480,32 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -517,15 +514,15 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -534,15 +531,15 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -551,15 +548,15 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -568,43 +565,43 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -613,10 +610,10 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/step2/step2_excel_template.xlsx
+++ b/data/step2/step2_excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\MCA\data\step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735EF31-B011-4F18-85EF-96F4BD9330B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C26605-B45C-4734-ABC8-170C3284FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1995" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,39 @@
     <t>file_name</t>
   </si>
   <si>
+    <t>source_CRS</t>
+  </si>
+  <si>
+    <t>target_CRS</t>
+  </si>
+  <si>
     <t>source_resolution(m)</t>
   </si>
   <si>
     <t>target_resolution(m)</t>
   </si>
   <si>
-    <t>source_CRS</t>
-  </si>
-  <si>
-    <t>target_CRS</t>
-  </si>
-  <si>
     <t>AOI</t>
   </si>
   <si>
     <t>AOI.shp</t>
   </si>
   <si>
+    <t>EPSG:3857</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>electrical_grid.geojson</t>
   </si>
   <si>
+    <t>EPSG:4326</t>
+  </si>
+  <si>
     <t>GHI.tif</t>
   </si>
   <si>
-    <t>EPSG:3857</t>
-  </si>
-  <si>
     <t>GLO30_DEM.tif</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>wind_speed_10m_height.tif</t>
-  </si>
-  <si>
-    <t>EPSG:4326</t>
   </si>
 </sst>
 </file>
@@ -439,17 +439,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -476,144 +475,144 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
